--- a/rehab/ValueSet-EncounterClassCodes.xlsx
+++ b/rehab/ValueSet-EncounterClassCodes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:11:07+02:00</t>
+    <t>2024-06-21T15:30:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/ValueSet-EncounterClassCodes.xlsx
+++ b/rehab/ValueSet-EncounterClassCodes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:30:32+02:00</t>
+    <t>2024-06-19T13:11:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/ValueSet-EncounterClassCodes.xlsx
+++ b/rehab/ValueSet-EncounterClassCodes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:11:07+02:00</t>
+    <t>2024-06-24T12:49:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/ValueSet-EncounterClassCodes.xlsx
+++ b/rehab/ValueSet-EncounterClassCodes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T12:49:29+02:00</t>
+    <t>2024-06-19T13:11:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/ValueSet-EncounterClassCodes.xlsx
+++ b/rehab/ValueSet-EncounterClassCodes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:11:07+02:00</t>
+    <t>2024-07-01T23:09:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,12 @@
     <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -107,9 +113,6 @@
   </si>
   <si>
     <t>124be95d-6924-4609-9d2a-e7c73ae3ab3d</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -249,7 +252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -351,20 +354,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -386,12 +397,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -413,38 +424,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/rehab/ValueSet-EncounterClassCodes.xlsx
+++ b/rehab/ValueSet-EncounterClassCodes.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from CareSocialCodes" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T23:09:09+02:00</t>
+    <t>2024-10-31T15:40:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
